--- a/Momentum/Assets/UI/Translation table.xlsx
+++ b/Momentum/Assets/UI/Translation table.xlsx
@@ -4,73 +4,93 @@
 
 <file path=META-INF/manifest.xml><?xml version="1.0" encoding="utf-8"?>
 <manifest:manifest xmlns:manifest="urn:oasis:names:tc:opendocument:xmlns:manifest:1.0" manifest:version="1.2">
-  <manifest:file-entry manifest:media-type="application/vnd.oasis.opendocument.spreadsheet" manifest:version="1.2" manifest:full-path="/"/>
-  <manifest:file-entry manifest:media-type="" manifest:full-path="Configurations2/accelerator/current.xml"/>
-  <manifest:file-entry manifest:media-type="application/vnd.sun.xml.ui.configuration" manifest:full-path="Configurations2/"/>
-  <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Thumbnails/thumbnail.png"/>
-  <manifest:file-entry manifest:media-type="text/xml" manifest:full-path="content.xml"/>
-  <manifest:file-entry manifest:media-type="text/xml" manifest:full-path="settings.xml"/>
-  <manifest:file-entry manifest:media-type="text/xml" manifest:full-path="styles.xml"/>
-  <manifest:file-entry manifest:media-type="application/rdf+xml" manifest:full-path="manifest.rdf"/>
-  <manifest:file-entry manifest:media-type="text/xml" manifest:full-path="meta.xml"/>
+  <manifest:file-entry manifest:full-path="/" manifest:version="1.2" manifest:media-type="application/vnd.oasis.opendocument.spreadsheet"/>
+  <manifest:file-entry manifest:full-path="Configurations2/accelerator/current.xml" manifest:media-type=""/>
+  <manifest:file-entry manifest:full-path="Configurations2/" manifest:media-type="application/vnd.sun.xml.ui.configuration"/>
+  <manifest:file-entry manifest:full-path="styles.xml" manifest:media-type="text/xml"/>
+  <manifest:file-entry manifest:full-path="manifest.rdf" manifest:media-type="application/rdf+xml"/>
+  <manifest:file-entry manifest:full-path="meta.xml" manifest:media-type="text/xml"/>
+  <manifest:file-entry manifest:full-path="Thumbnails/thumbnail.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="content.xml" manifest:media-type="text/xml"/>
+  <manifest:file-entry manifest:full-path="settings.xml" manifest:media-type="text/xml"/>
 </manifest:manifest>
 </file>
 
 <file path=content.xml><?xml version="1.0" encoding="utf-8"?>
-<office:document-content xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:xforms="http://www.w3.org/2002/xforms" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" office:version="1.2">
+<office:document-content xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:xforms="http://www.w3.org/2002/xforms" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" xmlns:formx="urn:openoffice:names:experimental:ooxml-odf-interop:xmlns:form:1.0" xmlns:css3t="http://www.w3.org/TR/css3-text/" office:version="1.2">
   <office:scripts/>
   <office:font-face-decls>
     <style:font-face style:name="Arial1" svg:font-family="Arial" style:font-pitch="variable"/>
     <style:font-face style:name="Cambria" svg:font-family="Cambria" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss" style:font-pitch="variable"/>
+    <style:font-face style:name="Liberation Sans" svg:font-family="'Liberation Sans'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Lucida Sans Unicode" svg:font-family="'Lucida Sans Unicode'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Mangal" svg:font-family="Mangal" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Microsoft YaHei" svg:font-family="'Microsoft YaHei'" style:font-family-generic="system" style:font-pitch="variable"/>
+    <style:font-face style:name="Segoe UI" svg:font-family="'Segoe UI'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Tahoma" svg:font-family="Tahoma" style:font-family-generic="system" style:font-pitch="variable"/>
   </office:font-face-decls>
   <office:automatic-styles>
     <style:style style:name="co1" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="1.422in"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="102.39pt"/>
     </style:style>
     <style:style style:name="co2" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="1.9516in"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="146.49pt"/>
     </style:style>
     <style:style style:name="co3" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="1.5661in"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="173.96pt"/>
     </style:style>
     <style:style style:name="co4" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="1.7972in"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="160.64pt"/>
     </style:style>
     <style:style style:name="co5" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="1.1134in"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="103.41pt"/>
     </style:style>
     <style:style style:name="co6" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="1.5209in"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="80.16pt"/>
     </style:style>
     <style:style style:name="co7" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="1.8846in"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="109.5pt"/>
     </style:style>
     <style:style style:name="co8" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="2.0398in"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="135.69pt"/>
+    </style:style>
+    <style:style style:name="co9" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="146.86pt"/>
+    </style:style>
+    <style:style style:name="co10" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="253.11pt"/>
+    </style:style>
+    <style:style style:name="co11" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="202.14pt"/>
+    </style:style>
+    <style:style style:name="co12" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="282.9pt"/>
+    </style:style>
+    <style:style style:name="co13" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="208.46pt"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
-      <style:table-row-properties style:row-height="0.1953in" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="13.8pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro2" style:family="table-row">
-      <style:table-row-properties style:row-height="0.2189in" fo:break-before="auto" style:use-optimal-row-height="false"/>
+      <style:table-row-properties style:row-height="15.65pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro3" style:family="table-row">
+      <style:table-row-properties style:row-height="15.76pt" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_Sheet1">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
     <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:font-name="Cambria" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+      <style:paragraph-properties fo:margin-left="0pt" style:writing-mode="page"/>
+      <style:text-properties style:use-window-font-color="true" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Cambria" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:background-color="#ffffff" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+      <style:paragraph-properties fo:margin-left="0pt" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
   </office:automatic-styles>
   <office:body>
@@ -84,303 +104,456 @@
         <table:table-column table:style-name="co2" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co3" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-column table:style-name="co5" table:number-columns-repeated="2" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-column table:style-name="co6" table:number-columns-repeated="2" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co5" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-column table:style-name="co7" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co7" table:number-columns-repeated="2" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co8" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-column table:style-name="co5" table:number-columns-repeated="1013" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co9" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co10" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co11" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co12" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co13" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co6" table:number-columns-repeated="1008" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>Main Menu</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="4"/>
           <table:table-cell table:style-name="ce1"/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>Pause Menu</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1016"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Tutorial Level Text</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1011"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>Languages:</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>Tutorial Level</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>Host Game </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>Join Game</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>Options</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>Quit</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1"/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>Resume</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>Options</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>Leave Game</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>Quit Program</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1013"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>English</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>TUTORIAL LEVEL</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>HOST GAME </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>JOIN GAME</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>OPTIONS</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>QUIT</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1"/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>RESUME</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>OPTIONS</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>LEAVE GAME</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>QUIT GAME</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1013"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>1 for PullGun/ 2 for PushGun</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>“Backspace” to Change Weapons</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Try out the Primary Fires</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>“Space” for small Jump</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1008"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>French</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>NIVEAU TUTORIAL</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>HÔTE JEU</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>REJOINS UNE PARTIE</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>PARAMÈTRES</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>QUITTER</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1"/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>REPRENDRE</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
             <text:p>PARAMÈTRES</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>CONGÉ JEU</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>QUITTER PROGRAMME</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1013"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>1 pour tirer arme, 2 pour pousser l'arme</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>"espace Retour" pour changer d'arme</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Probieren Sie die Primary Fires</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>"Espace" pour les petits Jump</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1008"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>German</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>LERNPROGRAMM STUFE</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>GASTSPIEL</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>SPIEL BEITRETEN</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>OPTIONEN</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>VERLASSEN</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1"/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>FORTSETZEN</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>OPTIONEN</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>HAUPTMENÜ</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>PROGRAMM BEENDEN</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1013"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>1 für Pull-Waffe, 2 für Push-Waffe</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>"Rücktaste", um Waffen zu ändern</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Probieren Sie die Primary Fires</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>"Space" für kleine Jump</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1008"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>Italian</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>LIVELLO TUTORIAL</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>OSPITARE GIOCO</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>UNISCITI AL GIOCO</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>OPZIONI</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>SMETTERE</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1"/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>CURRICULUM VITAE</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
             <text:p>OPZIONI</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>ABBANDONA LA PARTITA</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>CHIUDERE IL PROGRAMMA</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1013"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>1 per l'arma di tiro, 2 per l'arma di spinta</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>"spazio posteriore" per cambiare le armi</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Prova i Fuochi primarie</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>"Spazio" per piccolo salto</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1008"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>Japanese</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>チュートリアルレベル</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>ゲームをホスト</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>ゲームに参加します</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>オプション</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>終了する</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1"/>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>履歴書</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>オプション</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>メインメニュー</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>プログラムを終了</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>プッシュ武器用のプル武器、2のための1</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>「バックスペース」 武器を変更するには</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>プライマリ火災を試してみてください</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>小ジャンプのための「スペース」</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1008"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>Russian</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>Учебник УРОВЕНЬ</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>хозяин</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>ПРИСОЕДИНИТЬСЯ</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>ОПЦИИ</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>УВОЛИТЬСЯ</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1"/>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>ПРОДОЛЖИТЬ</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>ОПЦИИ</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>ГЛАВНОЕ МЕНЮ</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>ВЫЙТИ ПРОГРАММЫ</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>1 для вытягивания оружия, 2 для нажимной оружия</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>"бекспейс", чтобы изменить оружие</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Попробуйте воспользоваться одним из первичных Пожары</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>"Пространство" для маленьких прыжковых</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1008"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>Spanish</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>NIVEL DE TUTORIAL</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>JUEGO DE ACOGIDA</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>UNETE AL JUEGO</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>OPCIONES</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>DEJAR</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1"/>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>CURRÍCULUM</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>OPCIONES</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>MENÚ PRINCIPAL</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>SALIR DEL PROGRAMA</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>1 para el arma de tracción, 2 para el arma de empuje</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>"Retroceso" para cambiar de arma</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Pruebe los incendios primarias</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>"Espacio" para el pequeño salto</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1008"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3" table:number-rows-repeated="2">
+          <table:table-cell/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="4"/>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>English</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="4"/>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>French</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>German</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>Italian</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>Japanese</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>チュートリアルレベル</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>ゲームをホスト</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>ゲームに参加します</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>オプション</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>終了する</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1"/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>履歴書</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>オプション</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>メインメニュー</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>プログラムを終了</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1013"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>Russian</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>Учебник УРОВЕНЬ</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>хозяин</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>ПРИСОЕДИНИТЬСЯ</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>ОПЦИИ</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>УВОЛИТЬСЯ</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1"/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>ПРОДОЛЖИТЬ</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>ОПЦИИ</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>ГЛАВНОЕ МЕНЮ</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>ВЫЙТИ ПРОГРАММЫ</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1013"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
             <text:p>Spanish</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>NIVEL DE TUTORIAL</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>JUEGO DE ACOGIDA</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>UNETE AL JUEGO</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>OPCIONES</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>DEJAR</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1"/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>CURRÍCULUM</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>OPCIONES</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>MENÚ PRINCIPAL</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>SALIR DEL PROGRAMA</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1013"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2" table:number-rows-repeated="1048566">
+          <table:table-cell table:number-columns-repeated="1023"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3" table:number-rows-repeated="1048556">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro3">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
+      <table:named-expressions/>
     </office:spreadsheet>
   </office:body>
 </office:document-content>
@@ -389,8 +562,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="82" meta:object-count="0"/>
-    <meta:generator>OpenOffice/4.1.1$Win32 OpenOffice.org_project/411m6$Build-9775</meta:generator>
+    <meta:generator>LibreOffice/5.0.4.2$Windows_X86_64 LibreOffice_project/2b9802c1994aa0b7dc6079e128979269cf95bc78</meta:generator>
+    <dc:date>2016-02-27T15:40:02.918000000</dc:date>
+    <meta:editing-duration>PT7M20S</meta:editing-duration>
+    <meta:editing-cycles>1</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="118" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -401,31 +577,32 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">43125</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">4444</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">83802</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">10003</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">13</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">13</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">13</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
+              <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">344</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">894</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -438,6 +615,7 @@
           <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
           <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
           <config:config-item config:name="IsOutlineSymbolsSet" config:type="boolean">true</config:config-item>
+          <config:config-item config:name="IsValueHighlightingEnabled" config:type="boolean">false</config:config-item>
           <config:config-item config:name="IsSnapToRaster" config:type="boolean">false</config:config-item>
           <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
           <config:config-item config:name="RasterResolutionX" config:type="int">1270</config:config-item>
@@ -449,52 +627,56 @@
       </config:config-item-map-indexed>
     </config:config-item-set>
     <config:config-item-set config:name="ooo:configuration-settings">
-      <config:config-item config:name="AllowPrintJobCancel" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="IsKernAsianPunctuation" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="AutoCalculate" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="ShowPageBreaks" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="UpdateFromTemplate" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="IsDocumentShared" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="RasterSubdivisionX" config:type="int">1</config:config-item>
-      <config:config-item config:name="GridColor" config:type="long">12632256</config:config-item>
-      <config:config-item config:name="RasterSubdivisionY" config:type="int">1</config:config-item>
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterName" config:type="string">Microsoft XPS Document Writer</config:config-item>
-      <config:config-item config:name="IsSnapToRaster" config:type="boolean">false</config:config-item>
+      <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="GridColor" config:type="long">12632256</config:config-item>
+      <config:config-item config:name="ShowPageBreaks" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="IsKernAsianPunctuation" config:type="boolean">false</config:config-item>
       <config:config-item config:name="IsOutlineSymbolsSet" config:type="boolean">true</config:config-item>
       <config:config-item config:name="LinkUpdateMode" config:type="short">3</config:config-item>
+      <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="IsSnapToRaster" config:type="boolean">false</config:config-item>
+      <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
+      <config:config-item config:name="RasterResolutionX" config:type="int">1270</config:config-item>
+      <config:config-item config:name="RasterResolutionY" config:type="int">1270</config:config-item>
+      <config:config-item config:name="RasterSubdivisionX" config:type="int">1</config:config-item>
+      <config:config-item config:name="RasterSubdivisionY" config:type="int">1</config:config-item>
+      <config:config-item config:name="IsRasterAxisSynchronized" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="AutoCalculate" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="PrinterName" config:type="string">Microsoft XPS Document Writer</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">XAX+/01pY3Jvc29mdCBYUFMgRG9jdW1lbnQgV3JpdGVyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAATWljcm9zb2Z0IFhQUyBEb2N1bWVudCBXcml0ZXIgdgAWAAEAfgQAAAAAAAAIAFZUAAAkbQAAM1ROVwAAAAAKAE0AaQBjAHIAbwBzAG8AZgB0ACAAWABQAFMAIABEAG8AYwB1AG0AZQBuAHQAIABXAHIAaQB0AGUAcgAAAAAAAAABBAMG3ACYAwOvAAABAAEA6gpvCGQAAQAPAFgCAgABAFgCAwAAAEwAZQB0AHQAZQByAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEAAAAAAAAAAQAAAAIAAAABAAAA/////0dJUzQAAAAAAAAAAAAAAABESU5VIgAgAXwDHADK0vZyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAIAEAAFNNVEoAAAAAEAAQAXsAMABGADQAMQAzADAARABEAC0AMQA5AEMANwAtADcAYQBiADYALQA5ADkAQQAxAC0AOQA4ADAARgAwADMAQgAyAEUARQA0AEUAfQAAAElucHV0QmluAEZPUk1TT1VSQ0UAUkVTRExMAFVuaXJlc0RMTABJbnRlcmxlYXZpbmcAT0ZGAEltYWdlVHlwZQBKUEVHTWVkAE9yaWVudGF0aW9uAFBPUlRSQUlUAENvbGxhdGUAT0ZGAFJlc29sdXRpb24AT3B0aW9uMQBQYXBlclNpemUATEVUVEVSAENvbG9yTW9kZQAyNGJwcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHAAAAFY0RE0BAAAAAAAAAAAAAAAAAAAAAAAAABIAQ09NUEFUX0RVUExFWF9NT0RFDgBEVVBMRVhfVU5LTk9XTg==</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">FgX+/01pY3Jvc29mdCBYUFMgRG9jdW1lbnQgV3JpdGVyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAATWljcm9zb2Z0IFhQUyBEb2N1bWVudCBXcml0ZXIAAAAWAAEAPAQAAAAAAAAIAFZUAAAkbQAAM1ROVwIACABNAGkAYwByAG8AcwBvAGYAdAAgAFgAUABTACAARABvAGMAdQBtAGUAbgB0ACAAVwByAGkAdABlAHIAAAAAAAAAAQQABtwAWAMD/wAAAQABAOoKbwhkAAEADwBYAgIAAQBYAgIAAABMAGUAdAB0AGUAcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAAAAAAAAAAEAAAACAAAAAQAAAP////8AAAAAAAAAAAAAAAAAAAAARElOVSIAEAFMAwwAytL2cgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAAAAAAAAAAAAAAAQAQAAU01USgAAAAAQAAABTQBpAGMAcgBvAHMAbwBmAHQAIABYAFAAUwAgAEQAbwBjAHUAbQBlAG4AdAAgAFcAcgBpAHQAZQByAAAASW5wdXRCaW4ARk9STVNPVVJDRQBSRVNETEwAVW5pcmVzRExMAEludGVybGVhdmluZwBPRkYASW1hZ2VUeXBlAEpQRUdNZWQAT3JpZW50YXRpb24AUE9SVFJBSVQAQ29sbGF0ZQBPRkYAUmVzb2x1dGlvbgBPcHRpb24xAFBhcGVyU2l6ZQBMRVRURVIAQ29sb3JNb2RlADI0YnBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwAAABNWERXAQEAABIAQ09NUEFUX0RVUExFWF9NT0RFCgBEVVBMRVhfT0ZG</config:config-item>
+      <config:config-item config:name="SaveVersionOnClose" config:type="boolean">false</config:config-item>
+      <config:config-item config:name="UpdateFromTemplate" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="AllowPrintJobCancel" config:type="boolean">true</config:config-item>
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="SaveVersionOnClose" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="IsRasterAxisSynchronized" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="RasterResolutionX" config:type="int">1270</config:config-item>
-      <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="RasterResolutionY" config:type="int">1270</config:config-item>
-      <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="IsDocumentShared" config:type="boolean">false</config:config-item>
+      <config:config-item config:name="EmbedFonts" config:type="boolean">false</config:config-item>
+      <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
     </config:config-item-set>
   </office:settings>
 </office:document-settings>
 </file>
 
 <file path=styles.xml><?xml version="1.0" encoding="utf-8"?>
-<office:document-styles xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" office:version="1.2">
+<office:document-styles xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" xmlns:css3t="http://www.w3.org/TR/css3-text/" office:version="1.2">
   <office:font-face-decls>
     <style:font-face style:name="Arial1" svg:font-family="Arial" style:font-pitch="variable"/>
     <style:font-face style:name="Cambria" svg:font-family="Cambria" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss" style:font-pitch="variable"/>
+    <style:font-face style:name="Liberation Sans" svg:font-family="'Liberation Sans'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Lucida Sans Unicode" svg:font-family="'Lucida Sans Unicode'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Mangal" svg:font-family="Mangal" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Microsoft YaHei" svg:font-family="'Microsoft YaHei'" style:font-family-generic="system" style:font-pitch="variable"/>
+    <style:font-face style:name="Segoe UI" svg:font-family="'Segoe UI'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Tahoma" svg:font-family="Tahoma" style:font-family-generic="system" style:font-pitch="variable"/>
   </office:font-face-decls>
   <office:styles>
     <style:default-style style:family="table-cell">
-      <style:paragraph-properties style:tab-stop-distance="0.5in"/>
+      <style:paragraph-properties style:tab-stop-distance="36pt"/>
       <style:text-properties style:font-name="Arial" fo:language="en" fo:country="US" style:font-name-asian="Lucida Sans Unicode" style:language-asian="zh" style:country-asian="CN" style:font-name-complex="Tahoma" style:language-complex="hi" style:country-complex="IN"/>
     </style:default-style>
     <number:number-style style:name="N0">
@@ -502,100 +684,100 @@
     </number:number-style>
     <number:currency-style style:name="N104P0" style:volatile="true">
       <number:currency-symbol number:language="en" number:country="US">$</number:currency-symbol>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
     </number:currency-style>
     <number:currency-style style:name="N104">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>-</number:text>
       <number:currency-symbol number:language="en" number:country="US">$</number:currency-symbol>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <style:map style:condition="value()&gt;=0" style:apply-style-name="N104P0"/>
     </number:currency-style>
-    <number:number-style style:name="N8000" number:language="en" number:country="US">
+    <number:number-style style:name="N10000" number:language="en" number:country="US">
       <number:number number:min-integer-digits="1"/>
     </number:number-style>
-    <number:currency-style style:name="N8116P0" style:volatile="true" number:language="en" number:country="US">
-      <number:currency-symbol/>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N8116" number:language="en" number:country="US">
+    <number:currency-style style:name="N10122P0" style:volatile="true" number:language="en" number:country="US">
+      <number:currency-symbol/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10122" number:language="en" number:country="US">
       <number:text>(</number:text>
       <number:currency-symbol/>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8116P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N8117P0" style:volatile="true" number:language="en" number:country="US">
-      <number:currency-symbol/>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N8117" number:language="en" number:country="US">
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10122P0"/>
+    </number:currency-style>
+    <number:currency-style style:name="N10123P0" style:volatile="true" number:language="en" number:country="US">
+      <number:currency-symbol/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10123" number:language="en" number:country="US">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:currency-symbol/>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8117P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N8118P0" style:volatile="true" number:language="en" number:country="US">
-      <number:currency-symbol/>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N8118" number:language="en" number:country="US">
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10123P0"/>
+    </number:currency-style>
+    <number:currency-style style:name="N10125P0" style:volatile="true" number:language="en" number:country="US">
+      <number:currency-symbol/>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10125" number:language="en" number:country="US">
       <number:text>(</number:text>
       <number:currency-symbol/>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8118P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N8119P0" style:volatile="true" number:language="en" number:country="US">
-      <number:currency-symbol/>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N8119" number:language="en" number:country="US">
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10125P0"/>
+    </number:currency-style>
+    <number:currency-style style:name="N10126P0" style:volatile="true" number:language="en" number:country="US">
+      <number:currency-symbol/>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10126" number:language="en" number:country="US">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:currency-symbol/>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8119P0"/>
-    </number:currency-style>
-    <number:date-style style:name="N8120" number:language="en" number:country="US">
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10126P0"/>
+    </number:currency-style>
+    <number:date-style style:name="N10127" number:language="en" number:country="US">
       <number:month/>
       <number:text>/</number:text>
       <number:day/>
       <number:text>/</number:text>
       <number:year number:style="long"/>
     </number:date-style>
-    <number:date-style style:name="N8121" number:language="en" number:country="US">
+    <number:date-style style:name="N10128" number:language="en" number:country="US">
       <number:day/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:date-style style:name="N8122" number:language="en" number:country="US">
+    <number:date-style style:name="N10129" number:language="en" number:country="US">
       <number:day/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
     </number:date-style>
-    <number:date-style style:name="N8123" number:language="en" number:country="US">
+    <number:date-style style:name="N10130" number:language="en" number:country="US">
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:time-style style:name="N8124" number:language="en" number:country="US">
+    <number:time-style style:name="N10131" number:language="en" number:country="US">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text> </number:text>
       <number:am-pm/>
     </number:time-style>
-    <number:time-style style:name="N8125" number:language="en" number:country="US">
+    <number:time-style style:name="N10132" number:language="en" number:country="US">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
@@ -604,19 +786,19 @@
       <number:text> </number:text>
       <number:am-pm/>
     </number:time-style>
-    <number:time-style style:name="N8126" number:language="en" number:country="US">
+    <number:time-style style:name="N10133" number:language="en" number:country="US">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N8127" number:language="en" number:country="US">
+    <number:time-style style:name="N10134" number:language="en" number:country="US">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:date-style style:name="N8128" number:language="en" number:country="US">
+    <number:date-style style:name="N10135" number:language="en" number:country="US">
       <number:month/>
       <number:text>/</number:text>
       <number:day/>
@@ -627,168 +809,156 @@
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
     </number:date-style>
-    <number:number-style style:name="N8129P0" style:volatile="true" number:language="en" number:country="US">
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8129" number:language="en" number:country="US">
+    <number:number-style style:name="N10137P0" style:volatile="true" number:language="en" number:country="US">
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N10137" number:language="en" number:country="US">
       <number:text>(</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8129P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8130P0" style:volatile="true" number:language="en" number:country="US">
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8130" number:language="en" number:country="US">
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10137P0"/>
+    </number:number-style>
+    <number:number-style style:name="N10138P0" style:volatile="true" number:language="en" number:country="US">
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N10138" number:language="en" number:country="US">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8130P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8131P0" style:volatile="true" number:language="en" number:country="US">
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8131" number:language="en" number:country="US">
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10138P0"/>
+    </number:number-style>
+    <number:number-style style:name="N10140P0" style:volatile="true" number:language="en" number:country="US">
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N10140" number:language="en" number:country="US">
       <number:text>(</number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8131P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8132P0" style:volatile="true" number:language="en" number:country="US">
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8132" number:language="en" number:country="US">
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10140P0"/>
+    </number:number-style>
+    <number:number-style style:name="N10141P0" style:volatile="true" number:language="en" number:country="US">
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N10141" number:language="en" number:country="US">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N8132P0"/>
-    </number:number-style>
-    <number:number-style style:name="N8133P0" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8133P1" style:volatile="true" number:language="en" number:country="US">
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10141P0"/>
+    </number:number-style>
+    <number:number-style style:name="N10144P0" style:volatile="true" number:language="en" number:country="US">
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N10144P1" style:volatile="true" number:language="en" number:country="US">
       <number:text> (</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-    </number:number-style>
-    <number:number-style style:name="N8133P2" style:volatile="true" number:language="en" number:country="US">
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+    </number:number-style>
+    <number:number-style style:name="N10144P2" style:volatile="true" number:language="en" number:country="US">
       <number:text> - </number:text>
     </number:number-style>
-    <number:text-style style:name="N8133" number:language="en" number:country="US">
-      <number:text> </number:text>
+    <number:text-style style:name="N10144" number:language="en" number:country="US">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N8133P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N8133P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N8133P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N10144P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N10144P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N10144P2"/>
     </number:text-style>
-    <number:currency-style style:name="N8134P0" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N8134P1" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
+    <number:currency-style style:name="N10147P0" style:volatile="true" number:language="en" number:country="US">
+      <number:currency-symbol/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10147P1" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <number:text>(</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N8134P2" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10147P2" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <number:text>- </number:text>
     </number:currency-style>
-    <number:text-style style:name="N8134" number:language="en" number:country="US">
-      <number:text> </number:text>
+    <number:text-style style:name="N10147" number:language="en" number:country="US">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N8134P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N8134P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N8134P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N10147P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N10147P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N10147P2"/>
     </number:text-style>
-    <number:number-style style:name="N8135P0" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N8135P1" style:volatile="true" number:language="en" number:country="US">
+    <number:number-style style:name="N10150P0" style:volatile="true" number:language="en" number:country="US">
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N10150P1" style:volatile="true" number:language="en" number:country="US">
       <number:text> (</number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-    </number:number-style>
-    <number:number-style style:name="N8135P2" style:volatile="true" number:language="en" number:country="US">
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+    </number:number-style>
+    <number:number-style style:name="N10150P2" style:volatile="true" number:language="en" number:country="US">
       <number:text> -</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="0"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:text-style style:name="N8135" number:language="en" number:country="US">
-      <number:text> </number:text>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
+      <number:text> </number:text>
+    </number:number-style>
+    <number:text-style style:name="N10150" number:language="en" number:country="US">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N8135P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N8135P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N8135P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N10150P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N10150P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N10150P2"/>
     </number:text-style>
-    <number:currency-style style:name="N8136P0" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N8136P1" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
+    <number:currency-style style:name="N10153P0" style:volatile="true" number:language="en" number:country="US">
+      <number:currency-symbol/>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10153P1" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <number:text>(</number:text>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N8136P2" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+    </number:currency-style>
+    <number:currency-style style:name="N10153P2" style:volatile="true" number:language="en" number:country="US">
       <number:currency-symbol/>
       <number:text>-</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="0"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:text-style style:name="N8136" number:language="en" number:country="US">
-      <number:text> </number:text>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
+      <number:text> </number:text>
+    </number:currency-style>
+    <number:text-style style:name="N10153" number:language="en" number:country="US">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N8136P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N8136P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N8136P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N10153P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N10153P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N10153P2"/>
     </number:text-style>
-    <number:time-style style:name="N8137" number:language="en" number:country="US">
+    <number:time-style style:name="N10154" number:language="en" number:country="US">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N8138" number:language="en" number:country="US" number:truncate-on-overflow="false">
+    <number:time-style style:name="N10155" number:language="en" number:country="US" number:truncate-on-overflow="false">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N8139" number:language="en" number:country="US">
+    <number:time-style style:name="N10156" number:language="en" number:country="US">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long" number:decimal-places="1"/>
     </number:time-style>
-    <number:number-style style:name="N8140" number:language="en" number:country="US">
-      <number:scientific-number number:decimal-places="1" number:min-integer-digits="3" number:min-exponent-digits="1"/>
+    <number:number-style style:name="N10157" number:language="en" number:country="US">
+      <number:scientific-number number:decimal-places="1" loext:min-decimal-places="1" number:min-integer-digits="3" number:min-exponent-digits="1" loext:exponent-interval="3" loext:forced-exponent-sign="true"/>
     </number:number-style>
     <style:style style:name="Default" style:family="table-cell">
-      <style:text-properties style:font-name-asian="Microsoft YaHei" style:font-name-complex="Mangal"/>
+      <style:text-properties style:font-name-asian="Microsoft YaHei" style:font-family-asian="'Microsoft YaHei'" style:font-family-generic-asian="system" style:font-pitch-asian="variable" style:font-name-complex="Mangal" style:font-family-complex="Mangal" style:font-family-generic-complex="system" style:font-pitch-complex="variable"/>
     </style:style>
     <style:style style:name="Result" style:family="table-cell" style:parent-style-name="Default">
       <style:text-properties fo:font-style="italic" style:text-underline-style="solid" style:text-underline-width="auto" style:text-underline-color="font-color" fo:font-weight="bold"/>
@@ -802,42 +972,42 @@
     <style:style style:name="Heading1" style:family="table-cell" style:parent-style-name="Heading">
       <style:table-cell-properties style:rotation-angle="90"/>
     </style:style>
-    <style:style style:name="Excel_20_Built-in_20_Normal" style:display-name="Excel Built-in Normal" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N8000">
+    <style:style style:name="Excel_20_Built-in_20_Normal" style:display-name="Excel Built-in Normal" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N10000">
       <style:table-cell-properties style:cell-protect="protected" style:print-content="true" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial1" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+      <style:paragraph-properties fo:margin-left="0pt" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Arial1" fo:font-family="Arial" style:font-pitch="variable" fo:font-size="10pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="10pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial1" style:font-family-complex="Arial" style:font-pitch-complex="variable" style:font-size-complex="10pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
   </office:styles>
   <office:automatic-styles>
     <style:page-layout style:name="Mpm1">
       <style:page-layout-properties style:first-page-number="continue" style:writing-mode="lr-tb"/>
       <style:header-style>
-        <style:header-footer-properties fo:min-height="0.2957in" fo:margin-left="0in" fo:margin-right="0in" fo:margin-bottom="0.0984in"/>
+        <style:header-footer-properties fo:min-height="21.29pt" fo:margin-left="0pt" fo:margin-right="0pt" fo:margin-bottom="7.09pt"/>
       </style:header-style>
       <style:footer-style>
-        <style:header-footer-properties fo:min-height="0.2957in" fo:margin-left="0in" fo:margin-right="0in" fo:margin-top="0.0984in"/>
+        <style:header-footer-properties fo:min-height="21.29pt" fo:margin-left="0pt" fo:margin-right="0pt" fo:margin-top="7.09pt"/>
       </style:footer-style>
     </style:page-layout>
     <style:page-layout style:name="Mpm2">
       <style:page-layout-properties style:writing-mode="lr-tb"/>
       <style:header-style>
-        <style:header-footer-properties fo:min-height="0.2957in" fo:margin-left="0in" fo:margin-right="0in" fo:margin-bottom="0.0984in" fo:border="0.0346in solid #000000" fo:padding="0.0071in" fo:background-color="#c0c0c0">
+        <style:header-footer-properties fo:min-height="21.29pt" fo:margin-left="0pt" fo:margin-right="0pt" fo:margin-bottom="7.09pt" fo:border="2.49pt solid #000000" fo:padding="0.51pt" fo:background-color="#c0c0c0">
           <style:background-image/>
         </style:header-footer-properties>
       </style:header-style>
       <style:footer-style>
-        <style:header-footer-properties fo:min-height="0.2957in" fo:margin-left="0in" fo:margin-right="0in" fo:margin-top="0.0984in" fo:border="0.0346in solid #000000" fo:padding="0.0071in" fo:background-color="#c0c0c0">
+        <style:header-footer-properties fo:min-height="21.29pt" fo:margin-left="0pt" fo:margin-right="0pt" fo:margin-top="7.09pt" fo:border="2.49pt solid #000000" fo:padding="0.51pt" fo:background-color="#c0c0c0">
           <style:background-image/>
         </style:header-footer-properties>
       </style:footer-style>
     </style:page-layout>
     <style:page-layout style:name="Mpm3">
-      <style:page-layout-properties fo:page-width="8.5in" fo:page-height="11in" style:num-format="1" style:print-orientation="portrait" fo:margin-top="0.9839in" fo:margin-bottom="0.9839in" fo:margin-left="0.748in" fo:margin-right="0.748in" style:print-page-order="ttb" style:first-page-number="continue" style:scale-to="100%" style:writing-mode="lr-tb" style:print="charts drawings objects zero-values"/>
+      <style:page-layout-properties fo:page-width="612pt" fo:page-height="792pt" style:num-format="1" style:print-orientation="portrait" fo:margin-top="70.84pt" fo:margin-bottom="70.84pt" fo:margin-left="53.86pt" fo:margin-right="53.86pt" style:print-page-order="ttb" style:first-page-number="continue" style:scale-to="100%" style:writing-mode="lr-tb" style:print="charts drawings objects zero-values"/>
       <style:header-style>
-        <style:header-footer-properties fo:min-height="0.2953in" fo:margin-left="0in" fo:margin-right="0in" fo:margin-bottom="0.0984in"/>
+        <style:header-footer-properties fo:min-height="21.26pt" fo:margin-left="0pt" fo:margin-right="0pt" fo:margin-bottom="7.09pt"/>
       </style:header-style>
       <style:footer-style>
-        <style:header-footer-properties fo:min-height="0.2953in" fo:margin-left="0in" fo:margin-right="0in" fo:margin-top="0.0984in"/>
+        <style:header-footer-properties fo:min-height="21.26pt" fo:margin-left="0pt" fo:margin-right="0pt" fo:margin-top="7.09pt"/>
       </style:footer-style>
     </style:page-layout>
   </office:automatic-styles>
@@ -869,9 +1039,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2016-02-26">02/26/2016</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2016-02-27">00/00/0000</text:date>
             , 
-            <text:time>14:37:23</text:time>
+            <text:time style:data-style-name="N2" text:time-value="15:17:29.043000000">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
